--- a/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +399,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>23757</v>
+        <v>23852</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -410,21 +410,21 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>23796</v>
+        <v>23852</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>431</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>23830</v>
+        <v>23853</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -432,10 +432,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>23830</v>
+        <v>23853</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -443,40 +443,40 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>23832</v>
+        <v>23854</v>
       </c>
       <c r="B6">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>23832</v>
+        <v>23854</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>23836</v>
+        <v>23855</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>431</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>23836</v>
+        <v>23855</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -487,40 +487,40 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>23837</v>
+        <v>23857</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>23837</v>
+        <v>23857</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>23839</v>
+        <v>23858</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>431</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>23839</v>
+        <v>23858</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -531,29 +531,29 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>23852</v>
+        <v>23859</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>23852</v>
+        <v>23859</v>
       </c>
       <c r="B15">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>23853</v>
+        <v>23876</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -564,51 +564,51 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>23853</v>
+        <v>23876</v>
       </c>
       <c r="B17">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>23854</v>
+        <v>23877</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>23854</v>
+        <v>23877</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>23855</v>
+        <v>23878</v>
       </c>
       <c r="B20">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>23855</v>
+        <v>23878</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -619,62 +619,62 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>23857</v>
+        <v>23901</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>23857</v>
+        <v>23903</v>
       </c>
       <c r="B23">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>23858</v>
+        <v>23903</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23858</v>
+        <v>23904</v>
       </c>
       <c r="B25">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>23859</v>
+        <v>23905</v>
       </c>
       <c r="B26">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>23859</v>
+        <v>23906</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>23876</v>
+        <v>23907</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -696,32 +696,32 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>23876</v>
+        <v>23908</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>23877</v>
+        <v>23918</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>23877</v>
+        <v>23919</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -729,150 +729,150 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>23878</v>
+        <v>23920</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>23878</v>
+        <v>23960</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>23901</v>
+        <v>23960</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>23903</v>
+        <v>23961</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>23903</v>
+        <v>23961</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>23904</v>
+        <v>23962</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>23905</v>
+        <v>23962</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>23906</v>
+        <v>23992</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>23907</v>
+        <v>23992</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>23908</v>
+        <v>23994</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>23918</v>
+        <v>23994</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>23919</v>
+        <v>24116</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>23920</v>
+        <v>24120</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>23960</v>
+        <v>24120</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -883,150 +883,150 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>23960</v>
+        <v>24121</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>23961</v>
+        <v>24121</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>23961</v>
+        <v>24122</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>23962</v>
+        <v>24122</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>23962</v>
+        <v>24123</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>23992</v>
+        <v>24123</v>
       </c>
       <c r="B51">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>23992</v>
+        <v>24124</v>
       </c>
       <c r="B52">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>23994</v>
+        <v>24124</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>23994</v>
+        <v>24125</v>
       </c>
       <c r="B54">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C54">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>24116</v>
+        <v>24125</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>24120</v>
+        <v>24126</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>24120</v>
+        <v>24126</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>24121</v>
+        <v>24127</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>24121</v>
+        <v>24127</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1037,43 +1037,43 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>24122</v>
+        <v>24130</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>24122</v>
+        <v>24131</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>24123</v>
+        <v>24132</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>24123</v>
+        <v>24133</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>24124</v>
+        <v>24134</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>24124</v>
+        <v>24151</v>
       </c>
       <c r="B65">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>24125</v>
+        <v>24153</v>
       </c>
       <c r="B66">
         <v>3</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>24125</v>
+        <v>24153</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -1125,43 +1125,43 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>24126</v>
+        <v>24154</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>24126</v>
+        <v>24154</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24127</v>
+        <v>24194</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C70">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>24127</v>
+        <v>24194</v>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1169,21 +1169,21 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>24130</v>
+        <v>24195</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>24131</v>
+        <v>24195</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1191,10 +1191,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>24132</v>
+        <v>24228</v>
       </c>
       <c r="B74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>24133</v>
+        <v>24228</v>
       </c>
       <c r="B75">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1213,10 +1213,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>24134</v>
+        <v>24242</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1224,10 +1224,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>24151</v>
+        <v>24242</v>
       </c>
       <c r="B77">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1235,10 +1235,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>24153</v>
+        <v>24243</v>
       </c>
       <c r="B78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1246,10 +1246,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>24153</v>
+        <v>24243</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -1257,21 +1257,21 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>24154</v>
+        <v>24244</v>
       </c>
       <c r="B80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>24154</v>
+        <v>24244</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>24194</v>
+        <v>24245</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>24194</v>
+        <v>24245</v>
       </c>
       <c r="B83">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -1301,10 +1301,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>24195</v>
+        <v>24247</v>
       </c>
       <c r="B84">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>24195</v>
+        <v>24247</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>24228</v>
+        <v>24248</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>24228</v>
+        <v>24248</v>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -1345,29 +1345,29 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>24246</v>
+        <v>24252</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>24246</v>
+        <v>24253</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>24248</v>
+        <v>24254</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>24248</v>
+        <v>24254</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1389,109 +1389,109 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>24252</v>
+        <v>24256</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>24253</v>
+        <v>24257</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>24254</v>
+        <v>24258</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>24254</v>
+        <v>24260</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>24256</v>
+        <v>24261</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>24257</v>
+        <v>24352</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>24258</v>
+        <v>24566</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>24260</v>
+        <v>24567</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>24261</v>
+        <v>24618</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>24352</v>
+        <v>24618</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -1499,43 +1499,43 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>24378</v>
+        <v>24619</v>
       </c>
       <c r="B102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C102">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>24566</v>
+        <v>24619</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
       <c r="C103">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>24567</v>
+        <v>24620</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>24618</v>
+        <v>24620</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>24618</v>
+        <v>24621</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -1554,21 +1554,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>24619</v>
+        <v>24621</v>
       </c>
       <c r="B107">
         <v>3</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>24619</v>
+        <v>24622</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>24620</v>
+        <v>24622</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>24620</v>
+        <v>24623</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>24622</v>
+        <v>24623</v>
       </c>
       <c r="B111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>24622</v>
+        <v>24624</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>24623</v>
+        <v>24624</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>24623</v>
+        <v>24625</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -1642,7 +1642,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>24624</v>
+        <v>24625</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>24624</v>
+        <v>24626</v>
       </c>
       <c r="B116">
         <v>3</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>24625</v>
+        <v>24626</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1675,10 +1675,10 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>24625</v>
+        <v>24627</v>
       </c>
       <c r="B118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>24626</v>
+        <v>24627</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>24626</v>
+        <v>24668</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1708,7 +1708,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>24627</v>
+        <v>24669</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -1719,10 +1719,10 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>24627</v>
+        <v>24670</v>
       </c>
       <c r="B122">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C122">
         <v>2</v>
@@ -1730,7 +1730,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>24668</v>
+        <v>24707</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -1741,32 +1741,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>24669</v>
+        <v>24707</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>24670</v>
+        <v>24709</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C125">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>24707</v>
+        <v>24709</v>
       </c>
       <c r="B126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>24707</v>
+        <v>24712</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>24711</v>
+        <v>24712</v>
       </c>
       <c r="B128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>24711</v>
+        <v>24713</v>
       </c>
       <c r="B129">
         <v>3</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>24712</v>
+        <v>24713</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>24712</v>
+        <v>24715</v>
       </c>
       <c r="B131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -1829,32 +1829,32 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>24713</v>
+        <v>24715</v>
       </c>
       <c r="B132">
         <v>3</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>24713</v>
+        <v>24722</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>24715</v>
+        <v>24723</v>
       </c>
       <c r="B134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -1862,29 +1862,29 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>24715</v>
+        <v>24724</v>
       </c>
       <c r="B135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>24722</v>
+        <v>24725</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>24723</v>
+        <v>24726</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -1895,18 +1895,18 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>24724</v>
+        <v>24727</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>24725</v>
+        <v>24728</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>24726</v>
+        <v>24729</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -1928,18 +1928,18 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>24727</v>
+        <v>24731</v>
       </c>
       <c r="B141">
         <v>2</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>24728</v>
+        <v>24732</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -1950,21 +1950,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>24729</v>
+        <v>24757</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>24731</v>
+        <v>25251</v>
       </c>
       <c r="B144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -1972,32 +1972,32 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>24732</v>
+        <v>25251</v>
       </c>
       <c r="B145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>24757</v>
+        <v>25252</v>
       </c>
       <c r="B146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>25251</v>
+        <v>25252</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -2005,18 +2005,18 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>25251</v>
+        <v>25253</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
       <c r="C148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>25252</v>
+        <v>25253</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>25252</v>
+        <v>25254</v>
       </c>
       <c r="B150">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>25253</v>
+        <v>25254</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -2049,21 +2049,21 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>25253</v>
+        <v>25286</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>25254</v>
+        <v>25287</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C153">
         <v>2</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>25254</v>
+        <v>25287</v>
       </c>
       <c r="B154">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>25255</v>
+        <v>25288</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C155">
         <v>2</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>25286</v>
+        <v>25288</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -2104,29 +2104,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>25287</v>
+        <v>25289</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>25287</v>
+        <v>25289</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>25288</v>
+        <v>25290</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -2137,21 +2137,21 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>25288</v>
+        <v>25290</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>25289</v>
+        <v>25296</v>
       </c>
       <c r="B161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>25289</v>
+        <v>25296</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>2</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>25290</v>
+        <v>25300</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>25290</v>
+        <v>25300</v>
       </c>
       <c r="B164">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C164">
         <v>2</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>25293</v>
+        <v>25302</v>
       </c>
       <c r="B165">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>25293</v>
+        <v>25302</v>
       </c>
       <c r="B166">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C166">
         <v>2</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>25296</v>
+        <v>25342</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -2225,21 +2225,21 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>25296</v>
+        <v>25342</v>
       </c>
       <c r="B168">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>25297</v>
+        <v>25344</v>
       </c>
       <c r="B169">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>25297</v>
+        <v>25344</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>25300</v>
+        <v>25352</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -2269,111 +2269,12 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>25300</v>
+        <v>25352</v>
       </c>
       <c r="B172">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="C172">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173">
-        <v>25341</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-      <c r="C173">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174">
-        <v>25341</v>
-      </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-      <c r="C174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175">
-        <v>25342</v>
-      </c>
-      <c r="B175">
-        <v>3</v>
-      </c>
-      <c r="C175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176">
-        <v>25342</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-      <c r="C176">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177">
-        <v>25344</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-      <c r="C177">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178">
-        <v>25344</v>
-      </c>
-      <c r="B178">
-        <v>3</v>
-      </c>
-      <c r="C178">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179">
-        <v>25352</v>
-      </c>
-      <c r="B179">
-        <v>1</v>
-      </c>
-      <c r="C179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180">
-        <v>25352</v>
-      </c>
-      <c r="B180">
-        <v>332</v>
-      </c>
-      <c r="C180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181">
-        <v>25378</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-      <c r="C181">
         <v>2</v>
       </c>
     </row>

--- a/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,43 +399,43 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>23852</v>
+        <v>23857</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>23852</v>
+        <v>23857</v>
       </c>
       <c r="B3">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>23853</v>
+        <v>23858</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>23853</v>
+        <v>23858</v>
       </c>
       <c r="B5">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -443,40 +443,40 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>23854</v>
+        <v>23859</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>431</v>
       </c>
       <c r="C6">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>23854</v>
+        <v>23859</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>23855</v>
+        <v>23876</v>
       </c>
       <c r="B8">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>23855</v>
+        <v>23876</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -487,21 +487,21 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>23857</v>
+        <v>23877</v>
       </c>
       <c r="B10">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>23857</v>
+        <v>23877</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -509,18 +509,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>23858</v>
+        <v>23878</v>
       </c>
       <c r="B12">
-        <v>431</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>23858</v>
+        <v>23878</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -531,18 +531,18 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>23859</v>
+        <v>23901</v>
       </c>
       <c r="B14">
-        <v>431</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>23859</v>
+        <v>23903</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -553,29 +553,29 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>23876</v>
+        <v>23903</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>23876</v>
+        <v>23904</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>23877</v>
+        <v>23905</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -586,21 +586,21 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>23877</v>
+        <v>23906</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>23878</v>
+        <v>23907</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>23878</v>
+        <v>23908</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>23901</v>
+        <v>23918</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -630,10 +630,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>23903</v>
+        <v>23919</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -641,18 +641,18 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>23903</v>
+        <v>23920</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>23904</v>
+        <v>23960</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -663,54 +663,54 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>23905</v>
+        <v>23960</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>23906</v>
+        <v>23961</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>23907</v>
+        <v>23961</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>23908</v>
+        <v>23962</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>23918</v>
+        <v>23962</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -718,161 +718,161 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>23919</v>
+        <v>23992</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>23920</v>
+        <v>23992</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>23960</v>
+        <v>23994</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>23960</v>
+        <v>23994</v>
       </c>
       <c r="B34">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>23961</v>
+        <v>24116</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>23961</v>
+        <v>24120</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>23962</v>
+        <v>24120</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>23962</v>
+        <v>24121</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>23992</v>
+        <v>24121</v>
       </c>
       <c r="B39">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>23992</v>
+        <v>24122</v>
       </c>
       <c r="B40">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C40">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>23994</v>
+        <v>24122</v>
       </c>
       <c r="B41">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>23994</v>
+        <v>24123</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>24116</v>
+        <v>24123</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>24120</v>
+        <v>24124</v>
       </c>
       <c r="B44">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>24120</v>
+        <v>24124</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -883,18 +883,18 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>24121</v>
+        <v>24125</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>24121</v>
+        <v>24125</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -905,18 +905,18 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>24122</v>
+        <v>24126</v>
       </c>
       <c r="B48">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>24122</v>
+        <v>24126</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -927,43 +927,43 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>24123</v>
+        <v>24127</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>24123</v>
+        <v>24127</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>24124</v>
+        <v>24130</v>
       </c>
       <c r="B52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>24124</v>
+        <v>24131</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -971,10 +971,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>24125</v>
+        <v>24132</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>24125</v>
+        <v>24133</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -993,21 +993,21 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>24126</v>
+        <v>24134</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>24126</v>
+        <v>24151</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1015,21 +1015,21 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>24127</v>
+        <v>24153</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>24127</v>
+        <v>24153</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1037,32 +1037,32 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>24130</v>
+        <v>24154</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>24131</v>
+        <v>24154</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>24132</v>
+        <v>24194</v>
       </c>
       <c r="B62">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1070,10 +1070,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>24133</v>
+        <v>24194</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1081,10 +1081,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>24134</v>
+        <v>24195</v>
       </c>
       <c r="B64">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>24151</v>
+        <v>24195</v>
       </c>
       <c r="B65">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>24153</v>
+        <v>24228</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1114,10 +1114,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>24153</v>
+        <v>24228</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1125,29 +1125,29 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>24154</v>
+        <v>24242</v>
       </c>
       <c r="B68">
         <v>3</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>24154</v>
+        <v>24242</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>24194</v>
+        <v>24243</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>24194</v>
+        <v>24243</v>
       </c>
       <c r="B71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>24195</v>
+        <v>24244</v>
       </c>
       <c r="B72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>24195</v>
+        <v>24244</v>
       </c>
       <c r="B73">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>24228</v>
+        <v>24245</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -1202,10 +1202,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>24228</v>
+        <v>24245</v>
       </c>
       <c r="B75">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1213,32 +1213,32 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>24242</v>
+        <v>24252</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>24242</v>
+        <v>24253</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>24243</v>
+        <v>24254</v>
       </c>
       <c r="B78">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>24243</v>
+        <v>24254</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -1257,32 +1257,32 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>24244</v>
+        <v>24257</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>24244</v>
+        <v>24258</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>24245</v>
+        <v>24260</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -1290,87 +1290,87 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>24245</v>
+        <v>24261</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>24247</v>
+        <v>24352</v>
       </c>
       <c r="B84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>24247</v>
+        <v>24378</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>24248</v>
+        <v>24566</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>24248</v>
+        <v>24567</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>24252</v>
+        <v>24618</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>24253</v>
+        <v>24618</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
       <c r="C89">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>24254</v>
+        <v>24619</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>24254</v>
+        <v>24619</v>
       </c>
       <c r="B91">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -1389,10 +1389,10 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>24256</v>
+        <v>24620</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -1400,54 +1400,54 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>24257</v>
+        <v>24620</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>24258</v>
+        <v>24621</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>24260</v>
+        <v>24621</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>24261</v>
+        <v>24622</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
       <c r="C96">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>24352</v>
+        <v>24622</v>
       </c>
       <c r="B97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -1455,29 +1455,29 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>24566</v>
+        <v>24623</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>24567</v>
+        <v>24623</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>24618</v>
+        <v>24624</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>24618</v>
+        <v>24624</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1499,10 +1499,10 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>24619</v>
+        <v>24625</v>
       </c>
       <c r="B102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -1510,10 +1510,10 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>24619</v>
+        <v>24625</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>24620</v>
+        <v>24626</v>
       </c>
       <c r="B104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -1532,10 +1532,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>24620</v>
+        <v>24626</v>
       </c>
       <c r="B105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -1543,10 +1543,10 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>24621</v>
+        <v>24627</v>
       </c>
       <c r="B106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -1554,21 +1554,21 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>24621</v>
+        <v>24627</v>
       </c>
       <c r="B107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>24622</v>
+        <v>24668</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C108">
         <v>2</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>24622</v>
+        <v>24669</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -1587,10 +1587,10 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>24623</v>
+        <v>24670</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C110">
         <v>2</v>
@@ -1598,10 +1598,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>24623</v>
+        <v>24707</v>
       </c>
       <c r="B111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -1609,10 +1609,10 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>24624</v>
+        <v>24707</v>
       </c>
       <c r="B112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C112">
         <v>2</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>24624</v>
+        <v>24709</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>24625</v>
+        <v>24709</v>
       </c>
       <c r="B114">
         <v>3</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>24625</v>
+        <v>24712</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>24626</v>
+        <v>24712</v>
       </c>
       <c r="B116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C116">
         <v>2</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>24626</v>
+        <v>24713</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -1675,18 +1675,18 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>24627</v>
+        <v>24713</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>24627</v>
+        <v>24715</v>
       </c>
       <c r="B119">
         <v>3</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>24668</v>
+        <v>24715</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -1708,32 +1708,32 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>24669</v>
+        <v>24722</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>24670</v>
+        <v>24723</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>24707</v>
+        <v>24724</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -1741,32 +1741,32 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>24707</v>
+        <v>24725</v>
       </c>
       <c r="B124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>24709</v>
+        <v>24726</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>24709</v>
+        <v>24727</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -1774,10 +1774,10 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>24712</v>
+        <v>24729</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C127">
         <v>2</v>
@@ -1785,10 +1785,10 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>24712</v>
+        <v>24731</v>
       </c>
       <c r="B128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128">
         <v>2</v>
@@ -1796,32 +1796,32 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>24713</v>
+        <v>24732</v>
       </c>
       <c r="B129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>24713</v>
+        <v>24757</v>
       </c>
       <c r="B130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>24715</v>
+        <v>25251</v>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -1829,32 +1829,32 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>24715</v>
+        <v>25251</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C132">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>24722</v>
+        <v>25252</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>24723</v>
+        <v>25252</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -1862,32 +1862,32 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>24724</v>
+        <v>25253</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>24725</v>
+        <v>25253</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C136">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>24726</v>
+        <v>25255</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>2</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>24727</v>
+        <v>25278</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -1906,10 +1906,10 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>24728</v>
+        <v>25286</v>
       </c>
       <c r="B139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C139">
         <v>2</v>
@@ -1917,10 +1917,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>24729</v>
+        <v>25287</v>
       </c>
       <c r="B140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -1928,21 +1928,21 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>24731</v>
+        <v>25287</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>24732</v>
+        <v>25288</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142">
         <v>2</v>
@@ -1950,21 +1950,21 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>24757</v>
+        <v>25288</v>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>25251</v>
+        <v>25289</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
         <v>2</v>
@@ -1972,10 +1972,10 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>25251</v>
+        <v>25289</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>2</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>25252</v>
+        <v>25290</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>25252</v>
+        <v>25290</v>
       </c>
       <c r="B147">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C147">
         <v>2</v>
@@ -2005,18 +2005,18 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>25253</v>
+        <v>25296</v>
       </c>
       <c r="B148">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C148">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>25253</v>
+        <v>25296</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -2027,10 +2027,10 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>25254</v>
+        <v>25300</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C150">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>25254</v>
+        <v>25300</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C151">
         <v>2</v>
@@ -2049,18 +2049,18 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>25286</v>
+        <v>25342</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
       <c r="C152">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>25287</v>
+        <v>25342</v>
       </c>
       <c r="B153">
         <v>3</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>25287</v>
+        <v>25352</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C154">
         <v>2</v>
@@ -2082,199 +2082,12 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>25288</v>
+        <v>25352</v>
       </c>
       <c r="B155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156">
-        <v>25288</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157">
-        <v>25289</v>
-      </c>
-      <c r="B157">
-        <v>3</v>
-      </c>
-      <c r="C157">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158">
-        <v>25289</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-      <c r="C158">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159">
-        <v>25290</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160">
-        <v>25290</v>
-      </c>
-      <c r="B160">
-        <v>23</v>
-      </c>
-      <c r="C160">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161">
-        <v>25296</v>
-      </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-      <c r="C161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162">
-        <v>25296</v>
-      </c>
-      <c r="B162">
-        <v>7</v>
-      </c>
-      <c r="C162">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163">
-        <v>25300</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-      <c r="C163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164">
-        <v>25300</v>
-      </c>
-      <c r="B164">
-        <v>7</v>
-      </c>
-      <c r="C164">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165">
-        <v>25302</v>
-      </c>
-      <c r="B165">
-        <v>7</v>
-      </c>
-      <c r="C165">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166">
-        <v>25302</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-      <c r="C166">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167">
-        <v>25342</v>
-      </c>
-      <c r="B167">
-        <v>3</v>
-      </c>
-      <c r="C167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168">
-        <v>25342</v>
-      </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169">
-        <v>25344</v>
-      </c>
-      <c r="B169">
-        <v>3</v>
-      </c>
-      <c r="C169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170">
-        <v>25344</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-      <c r="C170">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171">
-        <v>25352</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-      <c r="C171">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172">
-        <v>25352</v>
-      </c>
-      <c r="B172">
-        <v>332</v>
-      </c>
-      <c r="C172">
         <v>2</v>
       </c>
     </row>

--- a/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,10 +399,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>25286</v>
+        <v>25352</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>332</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -410,7 +410,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>25287</v>
+        <v>25352</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -421,243 +421,12 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>25287</v>
+        <v>25378</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>25288</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>25288</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>25289</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>25289</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>25290</v>
-      </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>25290</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>25296</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>25296</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>25300</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>25300</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>25341</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>25341</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>25342</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>25342</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>25344</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>25344</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>25345</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>25345</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>25352</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>25352</v>
-      </c>
-      <c r="B24">
-        <v>332</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>25378</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
         <v>5</v>
       </c>
     </row>

--- a/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
+++ b/Pricing Logic/modules/manual/cart_rules_701_chunk_2.xlsx
@@ -380,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,34 +399,2366 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>25352</v>
+        <v>23839</v>
       </c>
       <c r="B2">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>25352</v>
+        <v>23854</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
+        <v>23854</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>23855</v>
+      </c>
+      <c r="B5">
+        <v>431</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>23855</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>23857</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>23857</v>
+      </c>
+      <c r="B8">
+        <v>431</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>23858</v>
+      </c>
+      <c r="B9">
+        <v>431</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>23858</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>23859</v>
+      </c>
+      <c r="B11">
+        <v>431</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>23859</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>23876</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>23876</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>23877</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>23877</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>23878</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>23878</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>23901</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>23903</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>23903</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>23904</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>23905</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23906</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>23907</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>23908</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>23918</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>23919</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>23920</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>23960</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>23960</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>23961</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>23961</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>23962</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>23962</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>23992</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>23992</v>
+      </c>
+      <c r="B37">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>23994</v>
+      </c>
+      <c r="B38">
+        <v>29</v>
+      </c>
+      <c r="C38">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>23994</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>24120</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>24120</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>24121</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>24121</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>24122</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>24122</v>
+      </c>
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>24123</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>24123</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>24124</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>24124</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>24125</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>24125</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>24126</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>24126</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>24127</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>24127</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>24130</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>24131</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>24132</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>24133</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>24134</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>24151</v>
+      </c>
+      <c r="B61">
+        <v>29</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>24153</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>24153</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>24154</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>24154</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>24194</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>24194</v>
+      </c>
+      <c r="B67">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>24195</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>24195</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>24228</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>24228</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>24242</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>24242</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>24243</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>24243</v>
+      </c>
+      <c r="B75">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>24244</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>24244</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>24245</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>24245</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>24252</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>24253</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>24254</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>24254</v>
+      </c>
+      <c r="B83">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>24256</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>24257</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>24260</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>24261</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>24352</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>24378</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>24566</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>24567</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>24618</v>
+      </c>
+      <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>24618</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>24619</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>24619</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>24620</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>24620</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>24621</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>24621</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>24622</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>24622</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>24623</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>24623</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>24624</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>24624</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>24625</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>24625</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>24626</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>24626</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>24627</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>24627</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>24667</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>24668</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>24669</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>24705</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>24707</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>24707</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>24708</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>24708</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>24709</v>
+      </c>
+      <c r="B120">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>24709</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>24712</v>
+      </c>
+      <c r="B122">
+        <v>3</v>
+      </c>
+      <c r="C122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>24712</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>24715</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>24715</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>24726</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>24729</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>24732</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>24756</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>24757</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>24844</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>24889</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>25251</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>25251</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>25252</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>25252</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>25253</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>25253</v>
+      </c>
+      <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>25254</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+      <c r="C139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>25254</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>25255</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>25278</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>25286</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>25287</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>25287</v>
+      </c>
+      <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>25288</v>
+      </c>
+      <c r="B146">
+        <v>3</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>25288</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>25289</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>25289</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="C149">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>25290</v>
+      </c>
+      <c r="B150">
+        <v>23</v>
+      </c>
+      <c r="C150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>25290</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>25296</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>25296</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>25300</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>25300</v>
+      </c>
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>25341</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>25341</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>25342</v>
+      </c>
+      <c r="B158">
+        <v>3</v>
+      </c>
+      <c r="C158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>25342</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>25344</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>25344</v>
+      </c>
+      <c r="B161">
+        <v>3</v>
+      </c>
+      <c r="C161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>25345</v>
+      </c>
+      <c r="B162">
+        <v>3</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>25345</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>25352</v>
+      </c>
+      <c r="B164">
+        <v>332</v>
+      </c>
+      <c r="C164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>25352</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
         <v>25378</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>25477</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="C167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>25477</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>25478</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>25478</v>
+      </c>
+      <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>25480</v>
+      </c>
+      <c r="B171">
+        <v>3</v>
+      </c>
+      <c r="C171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>25480</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>25694</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>25695</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>25696</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>25697</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>25698</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>25698</v>
+      </c>
+      <c r="B178">
+        <v>3</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>25699</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>25699</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>25700</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>25700</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>25709</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>25709</v>
+      </c>
+      <c r="B184">
+        <v>3</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>25710</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>25710</v>
+      </c>
+      <c r="B186">
+        <v>3</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>25711</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>25711</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>25712</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>25712</v>
+      </c>
+      <c r="B190">
+        <v>3</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>25713</v>
+      </c>
+      <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>25713</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>25717</v>
+      </c>
+      <c r="B193">
+        <v>3</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>25717</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>25718</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>25765</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>25765</v>
+      </c>
+      <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>25766</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>25766</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>25768</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>25768</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>25769</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>25769</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>25770</v>
+      </c>
+      <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>25770</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>25771</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>25772</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>25773</v>
+      </c>
+      <c r="B208">
+        <v>2</v>
+      </c>
+      <c r="C208">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>25774</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>25775</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>25897</v>
+      </c>
+      <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>25899</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>25928</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>25930</v>
+      </c>
+      <c r="B214">
+        <v>3</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>25958</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>25960</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
         <v>5</v>
       </c>
     </row>
